--- a/Definitions/UnitOfMeasure.xlsx
+++ b/Definitions/UnitOfMeasure.xlsx
@@ -24,20 +24,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
   <si>
     <t>gallons per minute</t>
   </si>
   <si>
-    <t>def/uom/gallons-per-minute</t>
-  </si>
-  <si>
-    <t>milliDarcy</t>
-  </si>
-  <si>
-    <t>def/uom/millidarcy</t>
-  </si>
-  <si>
     <t>percent</t>
   </si>
   <si>
@@ -77,9 +68,6 @@
     <t>megaWatt</t>
   </si>
   <si>
-    <t>dcdtr:measureClass</t>
-  </si>
-  <si>
     <t>dc:source</t>
   </si>
   <si>
@@ -90,6 +78,39 @@
   </si>
   <si>
     <t>URI</t>
+  </si>
+  <si>
+    <t>dcdtr:unitsType</t>
+  </si>
+  <si>
+    <t>http://vocabulary.odm2.org/unitstype/linearvelocity</t>
+  </si>
+  <si>
+    <t>http://vocabulary.odm2.org/unitstype/volumetricflowrate</t>
+  </si>
+  <si>
+    <t>http://vocabulary.odm2.org/unitstype/temperature</t>
+  </si>
+  <si>
+    <t>http://vocabulary.odm2.org/unitstype/angle</t>
+  </si>
+  <si>
+    <t>http://vocabulary.odm2.org/unitstype/length</t>
+  </si>
+  <si>
+    <t>http://vocabulary.odm2.org/unitstype/power</t>
+  </si>
+  <si>
+    <t>kilogram</t>
+  </si>
+  <si>
+    <t>http://vocabulary.odm2.org/unitstype/mass</t>
+  </si>
+  <si>
+    <t>Kilogram per cubic meter</t>
+  </si>
+  <si>
+    <t>http://vocabulary.odm2.org/unitstype/concentrationordensitymasspervolume</t>
   </si>
 </sst>
 </file>
@@ -167,7 +188,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -182,6 +203,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -467,172 +491,205 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28" style="1" customWidth="1"/>
-    <col min="2" max="2" width="23.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="39.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="22.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="28" style="2" customWidth="1"/>
+    <col min="2" max="2" width="23.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="39.140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="22.42578125" style="2" customWidth="1"/>
     <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="str">
+      <c r="A2" s="2" t="str">
         <f>"def/uom/" &amp; LOWER(SUBSTITUTE(B2, " ", "-"))</f>
-        <v>def/uom/megawatt</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>16</v>
+        <v>def/uom/darcy</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="str">
+      <c r="A3" s="2" t="str">
         <f>"def/uom/" &amp; LOWER(SUBSTITUTE(B3, " ", "-"))</f>
-        <v>def/uom/gallons-per-minute</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>0</v>
+        <v>def/uom/degree</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="str">
+      <c r="A4" s="2" t="str">
         <f>"def/uom/" &amp; LOWER(SUBSTITUTE(B4, " ", "-"))</f>
         <v>def/uom/degree-celsius</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>15</v>
+      <c r="B4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="str">
+      <c r="A5" s="2" t="str">
         <f>"def/uom/" &amp; LOWER(SUBSTITUTE(B5, " ", "-"))</f>
-        <v>def/uom/degree</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="1" t="s">
+        <v>def/uom/feet</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="str">
+        <f>"def/uom/" &amp; LOWER(SUBSTITUTE(B6, " ", "-"))</f>
+        <v>def/uom/feet-per-day</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="str">
+        <f>"def/uom/" &amp; LOWER(SUBSTITUTE(B7, " ", "-"))</f>
+        <v>def/uom/gallons-per-minute</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="str">
+        <f>"def/uom/" &amp; LOWER(SUBSTITUTE(B8, " ", "-"))</f>
+        <v>def/uom/kilogram</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="str">
+        <f>"def/uom/" &amp; LOWER(SUBSTITUTE(B9, " ", "-"))</f>
+        <v>def/uom/kilogram-per-cubic-meter</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="str">
+        <f>"def/uom/" &amp; LOWER(SUBSTITUTE(B10, " ", "-"))</f>
+        <v>def/uom/kilometer</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="str">
+        <f>"def/uom/" &amp; LOWER(SUBSTITUTE(B11, " ", "-"))</f>
+        <v>def/uom/megawatt</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="str">
-        <f>"def/uom/" &amp; LOWER(SUBSTITUTE(B6, " ", "-"))</f>
+      <c r="E11" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="str">
+        <f>"def/uom/" &amp; LOWER(SUBSTITUTE(B12, " ", "-"))</f>
         <v>def/uom/meter</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="str">
-        <f>"def/uom/" &amp; LOWER(SUBSTITUTE(B7, " ", "-"))</f>
-        <v>def/uom/feet</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="str">
-        <f>"def/uom/" &amp; LOWER(SUBSTITUTE(B8, " ", "-"))</f>
-        <v>def/uom/kilometer</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="str">
-        <f>"def/uom/" &amp; LOWER(SUBSTITUTE(B9, " ", "-"))</f>
-        <v>def/uom/darcy</v>
-      </c>
-      <c r="B9" s="1" t="s">
+      <c r="B12" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="str">
-        <f>"def/uom/" &amp; LOWER(SUBSTITUTE(B10, " ", "-"))</f>
-        <v>def/uom/millidarcy</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="str">
-        <f>"def/uom/" &amp; LOWER(SUBSTITUTE(B11, " ", "-"))</f>
-        <v>def/uom/feet-per-day</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="str">
-        <f>"def/uom/" &amp; LOWER(SUBSTITUTE(B12, " ", "-"))</f>
-        <v>def/uom/meters-per-sec</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>5</v>
+      <c r="E12" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="str">
         <f>"def/uom/" &amp; LOWER(SUBSTITUTE(B13, " ", "-"))</f>
+        <v>def/uom/meters-per-sec</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="str">
+        <f>"def/uom/" &amp; LOWER(SUBSTITUTE(B14, " ", "-"))</f>
+        <v>def/uom/millidarcy</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="str">
+        <f>"def/uom/" &amp; LOWER(SUBSTITUTE(B15, " ", "-"))</f>
         <v>def/uom/percent</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
+      <c r="B15" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
     </row>
   </sheetData>
+  <sortState ref="A2:E15">
+    <sortCondition ref="B1"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>